--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220430_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220430_110800.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-04-30</t>
@@ -3447,7 +3447,6 @@
         <v>137</v>
       </c>
       <c r="F89">
-        <f/>
         <v>0</v>
       </c>
       <c r="G89" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220430_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220430_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>NEXTAR</t>
@@ -1197,7 +1200,7 @@
         <v>222</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1223,7 +1226,7 @@
         <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1249,7 +1252,7 @@
         <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1301,7 +1304,7 @@
         <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1327,7 +1330,7 @@
         <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1353,7 +1356,7 @@
         <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1379,7 +1382,7 @@
         <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1431,7 +1434,7 @@
         <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1483,7 +1486,7 @@
         <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1509,7 +1512,7 @@
         <v>229</v>
       </c>
       <c r="H14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1535,7 +1538,7 @@
         <v>230</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1561,7 +1564,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1587,7 +1590,7 @@
         <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1613,7 +1616,7 @@
         <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1665,7 +1668,7 @@
         <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1691,7 +1694,7 @@
         <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1717,7 +1720,7 @@
         <v>222</v>
       </c>
       <c r="H22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1743,7 +1746,7 @@
         <v>222</v>
       </c>
       <c r="H23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1769,7 +1772,7 @@
         <v>222</v>
       </c>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1795,7 +1798,7 @@
         <v>222</v>
       </c>
       <c r="H25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1821,7 +1824,7 @@
         <v>224</v>
       </c>
       <c r="H26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1847,7 +1850,7 @@
         <v>236</v>
       </c>
       <c r="H27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1899,7 +1902,7 @@
         <v>226</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1925,7 +1928,7 @@
         <v>222</v>
       </c>
       <c r="H30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1951,7 +1954,7 @@
         <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2029,7 +2032,7 @@
         <v>222</v>
       </c>
       <c r="H34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2055,7 +2058,7 @@
         <v>237</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2081,7 +2084,7 @@
         <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2107,7 +2110,7 @@
         <v>228</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2133,7 +2136,7 @@
         <v>222</v>
       </c>
       <c r="H38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2159,7 +2162,7 @@
         <v>236</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2185,7 +2188,7 @@
         <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2211,7 +2214,7 @@
         <v>239</v>
       </c>
       <c r="H41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2237,7 +2240,7 @@
         <v>222</v>
       </c>
       <c r="H42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2289,7 +2292,7 @@
         <v>233</v>
       </c>
       <c r="H44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2315,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2341,7 +2344,7 @@
         <v>233</v>
       </c>
       <c r="H46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2367,7 +2370,7 @@
         <v>242</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2393,7 +2396,7 @@
         <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2419,7 +2422,7 @@
         <v>235</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2445,7 +2448,7 @@
         <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2471,7 +2474,7 @@
         <v>242</v>
       </c>
       <c r="H51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2497,7 +2500,7 @@
         <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2523,7 +2526,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2575,7 +2578,7 @@
         <v>242</v>
       </c>
       <c r="H55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2601,7 +2604,7 @@
         <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2653,7 +2656,7 @@
         <v>248</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2731,7 +2734,7 @@
         <v>233</v>
       </c>
       <c r="H61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2783,7 +2786,7 @@
         <v>238</v>
       </c>
       <c r="H63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2809,7 +2812,7 @@
         <v>249</v>
       </c>
       <c r="H64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2861,7 +2864,7 @@
         <v>233</v>
       </c>
       <c r="H66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2939,7 +2942,7 @@
         <v>250</v>
       </c>
       <c r="H69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2965,7 +2968,7 @@
         <v>233</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2991,7 +2994,7 @@
         <v>242</v>
       </c>
       <c r="H71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3017,7 +3020,7 @@
         <v>233</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3043,7 +3046,7 @@
         <v>233</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3069,7 +3072,7 @@
         <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3121,7 +3124,7 @@
         <v>252</v>
       </c>
       <c r="H76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3147,7 +3150,7 @@
         <v>253</v>
       </c>
       <c r="H77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3173,7 +3176,7 @@
         <v>235</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3225,7 +3228,7 @@
         <v>242</v>
       </c>
       <c r="H80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3251,7 +3254,7 @@
         <v>224</v>
       </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3303,7 +3306,7 @@
         <v>233</v>
       </c>
       <c r="H83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3329,7 +3332,7 @@
         <v>233</v>
       </c>
       <c r="H84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3355,7 +3358,7 @@
         <v>230</v>
       </c>
       <c r="H85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3377,6 +3380,12 @@
       <c r="F86" t="s">
         <v>212</v>
       </c>
+      <c r="G86" t="s">
+        <v>254</v>
+      </c>
+      <c r="H86" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
@@ -3427,7 +3436,7 @@
         <v>235</v>
       </c>
       <c r="H88" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3453,7 +3462,7 @@
         <v>233</v>
       </c>
       <c r="H89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3479,7 +3488,7 @@
         <v>252</v>
       </c>
       <c r="H90" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3505,7 +3514,7 @@
         <v>233</v>
       </c>
       <c r="H91" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3583,7 +3592,7 @@
         <v>233</v>
       </c>
       <c r="H94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3632,10 +3641,10 @@
         <v>218</v>
       </c>
       <c r="G96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3661,7 +3670,7 @@
         <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3687,7 +3696,7 @@
         <v>224</v>
       </c>
       <c r="H98" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3713,7 +3722,7 @@
         <v>233</v>
       </c>
       <c r="H99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3739,7 +3748,7 @@
         <v>233</v>
       </c>
       <c r="H100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3762,10 +3771,10 @@
         <v>221</v>
       </c>
       <c r="G101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H101" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220430_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220430_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -721,7 +721,7 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>물고기뮤직</t>
@@ -785,9 +785,6 @@
   </si>
   <si>
     <t>AOMG</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1197,7 @@
         <v>222</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1226,7 +1223,7 @@
         <v>222</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1252,7 +1249,7 @@
         <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1304,7 +1301,7 @@
         <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1330,7 +1327,7 @@
         <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1356,7 +1353,7 @@
         <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1382,7 +1379,7 @@
         <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1434,7 +1431,7 @@
         <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1486,7 +1483,7 @@
         <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1512,7 +1509,7 @@
         <v>229</v>
       </c>
       <c r="H14" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1538,7 +1535,7 @@
         <v>230</v>
       </c>
       <c r="H15" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1564,7 +1561,7 @@
         <v>231</v>
       </c>
       <c r="H16" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1590,7 +1587,7 @@
         <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1616,7 +1613,7 @@
         <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1668,7 +1665,7 @@
         <v>235</v>
       </c>
       <c r="H20" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1694,7 +1691,7 @@
         <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1720,7 +1717,7 @@
         <v>222</v>
       </c>
       <c r="H22" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1746,7 +1743,7 @@
         <v>222</v>
       </c>
       <c r="H23" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1772,7 +1769,7 @@
         <v>222</v>
       </c>
       <c r="H24" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1798,7 +1795,7 @@
         <v>222</v>
       </c>
       <c r="H25" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1824,7 +1821,7 @@
         <v>224</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1850,7 +1847,7 @@
         <v>236</v>
       </c>
       <c r="H27" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1902,7 +1899,7 @@
         <v>226</v>
       </c>
       <c r="H29" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1928,7 +1925,7 @@
         <v>222</v>
       </c>
       <c r="H30" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1954,7 +1951,7 @@
         <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2032,7 +2029,7 @@
         <v>222</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2058,7 +2055,7 @@
         <v>237</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2084,7 +2081,7 @@
         <v>238</v>
       </c>
       <c r="H36" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2110,7 +2107,7 @@
         <v>228</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2136,7 +2133,7 @@
         <v>222</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2162,7 +2159,7 @@
         <v>236</v>
       </c>
       <c r="H39" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2188,7 +2185,7 @@
         <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2214,7 +2211,7 @@
         <v>239</v>
       </c>
       <c r="H41" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2240,7 +2237,7 @@
         <v>222</v>
       </c>
       <c r="H42" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2292,7 +2289,7 @@
         <v>233</v>
       </c>
       <c r="H44" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2318,7 +2315,7 @@
         <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2344,7 +2341,7 @@
         <v>233</v>
       </c>
       <c r="H46" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2370,7 +2367,7 @@
         <v>242</v>
       </c>
       <c r="H47" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2396,7 +2393,7 @@
         <v>243</v>
       </c>
       <c r="H48" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2422,7 +2419,7 @@
         <v>235</v>
       </c>
       <c r="H49" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2448,7 +2445,7 @@
         <v>244</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2474,7 +2471,7 @@
         <v>242</v>
       </c>
       <c r="H51" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2500,7 +2497,7 @@
         <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2526,7 +2523,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2578,7 +2575,7 @@
         <v>242</v>
       </c>
       <c r="H55" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2604,7 +2601,7 @@
         <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2656,7 +2653,7 @@
         <v>248</v>
       </c>
       <c r="H58" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2734,7 +2731,7 @@
         <v>233</v>
       </c>
       <c r="H61" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2786,7 +2783,7 @@
         <v>238</v>
       </c>
       <c r="H63" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2812,7 +2809,7 @@
         <v>249</v>
       </c>
       <c r="H64" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2864,7 +2861,7 @@
         <v>233</v>
       </c>
       <c r="H66" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2942,7 +2939,7 @@
         <v>250</v>
       </c>
       <c r="H69" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2968,7 +2965,7 @@
         <v>233</v>
       </c>
       <c r="H70" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2994,7 +2991,7 @@
         <v>242</v>
       </c>
       <c r="H71" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3020,7 +3017,7 @@
         <v>233</v>
       </c>
       <c r="H72" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3046,7 +3043,7 @@
         <v>233</v>
       </c>
       <c r="H73" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3072,7 +3069,7 @@
         <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3124,7 +3121,7 @@
         <v>252</v>
       </c>
       <c r="H76" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3150,7 +3147,7 @@
         <v>253</v>
       </c>
       <c r="H77" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3176,7 +3173,7 @@
         <v>235</v>
       </c>
       <c r="H78" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3228,7 +3225,7 @@
         <v>242</v>
       </c>
       <c r="H80" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3254,7 +3251,7 @@
         <v>224</v>
       </c>
       <c r="H81" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3306,7 +3303,7 @@
         <v>233</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3332,7 +3329,7 @@
         <v>233</v>
       </c>
       <c r="H84" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3358,7 +3355,7 @@
         <v>230</v>
       </c>
       <c r="H85" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3384,7 +3381,7 @@
         <v>254</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3436,7 +3433,7 @@
         <v>235</v>
       </c>
       <c r="H88" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3462,7 +3459,7 @@
         <v>233</v>
       </c>
       <c r="H89" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3488,7 +3485,7 @@
         <v>252</v>
       </c>
       <c r="H90" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3514,7 +3511,7 @@
         <v>233</v>
       </c>
       <c r="H91" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3592,7 +3589,7 @@
         <v>233</v>
       </c>
       <c r="H94" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3644,7 +3641,7 @@
         <v>255</v>
       </c>
       <c r="H96" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3670,7 +3667,7 @@
         <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3696,7 +3693,7 @@
         <v>224</v>
       </c>
       <c r="H98" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3722,7 +3719,7 @@
         <v>233</v>
       </c>
       <c r="H99" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3748,7 +3745,7 @@
         <v>233</v>
       </c>
       <c r="H100" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3774,7 +3771,7 @@
         <v>256</v>
       </c>
       <c r="H101" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
